--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3-ProiectAgenda\DocsAgenda\Lab01_CheckLists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3-ProiectAgenda\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA9EDA7-95B2-47BC-91CA-CD86D733BE9A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B85E076-F94F-4F82-8570-427F545289D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>do not print this form</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>R04</t>
-  </si>
-  <si>
-    <t>Lipseste functionalitatea ca un user sa se inscrie la un eveniment</t>
   </si>
   <si>
     <t>Nu se precizeaza nimic de starea initiala a aplicatiei inainte de prima folosire</t>
@@ -826,8 +823,8 @@
   </sheetPr>
   <dimension ref="A1:AMK27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -904,19 +901,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>1</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
@@ -930,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -945,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -960,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -975,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -990,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1111,8 +1102,8 @@
   </sheetPr>
   <dimension ref="A1:AMK28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1194,13 +1185,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1230,7 +1221,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1395,7 +1386,7 @@
   <dimension ref="A1:AMK32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1478,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -1493,13 +1484,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="10">
         <v>19</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1508,13 +1499,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="11">
         <v>64</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1523,13 +1514,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1">
         <v>116</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13"/>
     </row>
@@ -1539,13 +1530,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="11">
         <v>116</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1554,13 +1545,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="11">
         <v>75</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1569,13 +1560,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="11">
         <v>72</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
@@ -1584,13 +1575,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="11">
         <v>7</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
@@ -1599,13 +1590,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="11">
         <v>109</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
@@ -1614,13 +1605,13 @@
         <v>10</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="10">
         <v>101</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
